--- a/yourtoken_details/url_details.xlsx
+++ b/yourtoken_details/url_details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>URL</t>
   </si>
@@ -58,6 +58,16 @@
   </si>
   <si>
     <t>scop,grant_type,username,password</t>
+  </si>
+  <si>
+    <t>http://localhost:8091/user</t>
+  </si>
+  <si>
+    <t>{
+    "userName": "anil",
+    "password": "pass",
+    "enabled": true
+}</t>
   </si>
 </sst>
 </file>
@@ -110,7 +120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -125,6 +135,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -428,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,14 +515,26 @@
         <v>12</v>
       </c>
     </row>
+    <row r="9" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B9" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/yourtoken_details/url_details.xlsx
+++ b/yourtoken_details/url_details.xlsx
@@ -447,7 +447,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
